--- a/perforkid/database/form_car.xlsx
+++ b/perforkid/database/form_car.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162732A4-3064-4E96-B0DB-C3C3B9086852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEE42E3-A9D5-43E4-9749-D5C41AF8FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>รหัสประจำตัว</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>24/62 กรุงเทพ ประเทศไทย 10000</t>
+  </si>
+  <si>
+    <t>ห้องเรียน</t>
+  </si>
+  <si>
+    <t>1/1</t>
   </si>
 </sst>
 </file>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,13 +638,13 @@
     <col min="1" max="1" width="6" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="10" customWidth="1"/>
-    <col min="5" max="6" width="17.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.25" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="3"/>
+    <col min="4" max="5" width="10.375" style="10" customWidth="1"/>
+    <col min="6" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="62.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -649,19 +655,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -672,19 +681,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -695,237 +707,350 @@
         <v>11</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="7"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="7"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="7"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="7"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="7"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="7"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="7"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="7"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="7"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="7"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="7"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="7"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="7"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="7"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/perforkid/database/form_car.xlsx
+++ b/perforkid/database/form_car.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEE42E3-A9D5-43E4-9749-D5C41AF8FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D786F60-F079-463D-90C1-F192B32C7463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t>รหัสประจำตัว</t>
-  </si>
-  <si>
     <t>099-999-9999</t>
   </si>
   <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>ชื่อ-สกุล</t>
-  </si>
-  <si>
-    <t>เบอร์รถ</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>เบอร์โทร (บิดา)</t>
-  </si>
-  <si>
-    <t>เบอร์โทร (มารดา)</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -63,19 +45,37 @@
     <t>ด.ช. โชคชัย ใจดี</t>
   </si>
   <si>
-    <t>ที่อยู่ที่ไปรับ-ส่ง</t>
-  </si>
-  <si>
     <t>12/34 กรุงเทพ ประเทศไทย 10000</t>
   </si>
   <si>
     <t>24/62 กรุงเทพ ประเทศไทย 10000</t>
   </si>
   <si>
-    <t>ห้องเรียน</t>
-  </si>
-  <si>
     <t>1/1</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name-surname</t>
+  </si>
+  <si>
+    <t>class-room</t>
+  </si>
+  <si>
+    <t>car-number</t>
+  </si>
+  <si>
+    <t>father-phone</t>
+  </si>
+  <si>
+    <t>mother-phone</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,28 +646,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -678,48 +678,48 @@
         <v>123456</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/perforkid/database/form_car.xlsx
+++ b/perforkid/database/form_car.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perawit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D786F60-F079-463D-90C1-F192B32C7463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3578188-0D5A-4110-86DB-1EAC1AF68CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>099-999-9999</t>
   </si>
@@ -57,9 +57,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>name-surname</t>
   </si>
   <si>
@@ -76,13 +73,31 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>student-ID</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>go-status</t>
+  </si>
+  <si>
+    <t>back-status</t>
+  </si>
+  <si>
+    <t>ไปกับรถตู้</t>
+  </si>
+  <si>
+    <t>กลับกับรถตู้</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +108,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,38 +660,44 @@
     <col min="2" max="2" width="13.625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="3" customWidth="1"/>
     <col min="4" max="5" width="10.375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="62.25" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="3"/>
+    <col min="6" max="9" width="17.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="62.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -687,16 +714,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -707,22 +740,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -732,9 +771,11 @@
       <c r="E4" s="12"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -744,9 +785,11 @@
       <c r="E5" s="12"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -756,9 +799,11 @@
       <c r="E6" s="12"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -768,9 +813,11 @@
       <c r="E7" s="12"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -780,9 +827,11 @@
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -792,9 +841,11 @@
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -804,9 +855,11 @@
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -816,9 +869,11 @@
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -828,9 +883,11 @@
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -840,9 +897,11 @@
       <c r="E13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -852,9 +911,11 @@
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -864,9 +925,11 @@
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -876,9 +939,11 @@
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -888,9 +953,11 @@
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -900,9 +967,11 @@
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -912,9 +981,11 @@
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -924,9 +995,11 @@
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -936,9 +1009,11 @@
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -948,9 +1023,11 @@
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -960,33 +1037,35 @@
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
@@ -1053,6 +1132,7 @@
       <c r="D53" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
